--- a/excel/simple_accessories.xlsx
+++ b/excel/simple_accessories.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">Название</t>
   </si>
@@ -28,34 +28,46 @@
     <t xml:space="preserve">Цена</t>
   </si>
   <si>
-    <t xml:space="preserve">PlayStation DualSense White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.400.000 сум</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смарт браслет Xiaomi Smart Band 10 Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смарт браслет Xiaomi Smart Band 10 Grey</t>
+    <t xml:space="preserve">Беспроводные наушники Nothing Ear 2 White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беспроводные наушники Nothing Ear 2 Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабель Nothing Cable C-C 100 cm White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внешний аккумулятор Samsung 10000 mAh Type-C X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зарядное устройство Samsung USB Type-C 15W Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беспроводные наушники Wiko Buds 10 White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умный браслет Xiaomi Smart Band 10 Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умный браслет Xiaomi Smart Band 10 Grey</t>
   </si>
   <si>
     <t xml:space="preserve">Беспроводные наушники Xiaomi Redmi Buds 6 Lite Black</t>
   </si>
   <si>
-    <t xml:space="preserve">Смарт часы Redmi Watch 5 Active Midnight Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смарт часы Redmi Watch 5 Active Matte Siler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беспроводные наушники Xiaomi Buds 5-Titan Gray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смарт часы Xiaomi Watch S4 Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смарт браслет Xiaomi Smart Band 9 Pro Obsidian Black</t>
+    <t xml:space="preserve">Умные часы Redmi Watch 5 Active Midnight Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умные часы Redmi Watch 5 Active Matte Siler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беспроводные наушники Xiaomi Buds 5 Titan Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умные часы Xiaomi Watch S4 Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Умный браслет Xiaomi Smart Band 9 Pro Obsidian Black</t>
   </si>
   <si>
     <t xml:space="preserve">Внешний аккумулятор Xiaomi 33W Power Bank 20000mAh Tan</t>
@@ -82,7 +94,10 @@
     <t xml:space="preserve">Хаб Xiaomi 5-In-1 Type-C Hub</t>
   </si>
   <si>
-    <t xml:space="preserve">Беспроводная мышка Xiaomi Mouse lite 2</t>
+    <t xml:space="preserve">Мышь компьютерная Xiaomi Wireless Mouse Lite 2 White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мышь компьютерная Xiaomi Wireless Mouse Lite 2 Black</t>
   </si>
   <si>
     <t xml:space="preserve">Ручной отпариватель для одежды Xiaomi Handheld Steam Iron</t>
@@ -97,33 +112,6 @@
     <t xml:space="preserve">Ручной пылесос Xiaomi Vacuum Cleaner G20 Lite White</t>
   </si>
   <si>
-    <t xml:space="preserve">Yandex Станция Лайт 2 поколения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yandex Станция Мини 3 с Алисей на YaGPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yandex Станция Макс с Zigbee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yandex Станция Миди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беспроводные наушники Nothing Ear 2 White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беспроводные наушники Nothing Ear 2 Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кабель Nothing Cable C-C 100 cm White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внешний аккумулятор Samsung 10.0Ah Battery Pack Type-C X2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок питания Samsung USB Type-C 15W Black</t>
-  </si>
-  <si>
     <t xml:space="preserve">Массажер Xiaomi Massage Gun 2</t>
   </si>
   <si>
@@ -151,20 +139,82 @@
     <t xml:space="preserve">Проводные наушники Mi In-Ear Headphones Basic Silver</t>
   </si>
   <si>
-    <t xml:space="preserve">Смарт часы Xiaomi Smart Band 9 Glacier Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беспроводные наушники Wiko Buds 10 white</t>
+    <t xml:space="preserve">Умные часы Xiaomi Smart Band 9 Glacier Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yandex Станция Лайт 2 поколения, синяя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yandex Станция Мини 3 с Алисой на YaGPT, серая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яндекс Станция Макс с Zigbee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Акустическая система Яндекс Станция Миди с Zigbee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клавиатура Logitech K380s Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная мышь Logitech M330 Silent Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная мышь Logitech M240 Bluetooth Off-White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная мышь Logitech M240 Bluetooth Graphite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клавиатура Logitech K380 Off-White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная мышь Logitech M171 Off-White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плёнка для плоттера Gelius Basic Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плёнка для плоттера Gelius Prime Clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная мышь Logitech M171 Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная мышь Logitech M171 Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клавиатура Logitech K380 RUS Off-White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная мышь Logitech G102 Lightsync Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютерная мышь Logitech G102 Lightsync White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ремешок для часов Samsung Galaxy Watch6 Gray (S/M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ремешок для часов Samsung Galaxy Watch6 Mint (S/M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ремешок для часов Samsung Galaxy Watch6 Yellow (S/M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ремешок для часов Samsung Galaxy Watch6 Dark Green (S/M)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,34 +238,73 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -238,13 +327,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,12 +348,60 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -274,6 +413,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -454,10 +653,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -475,303 +674,475 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="n">
+        <v>999000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="n">
+        <v>999000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="n">
+        <v>219000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="n">
+        <v>279000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
+      <c r="B6" s="4" t="n">
+        <v>149000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="n">
+        <v>579000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="n">
+        <v>579000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="4" t="n">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="n">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="n">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="4" t="n">
+        <v>1123000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="4" t="n">
+        <v>2215000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="4" t="n">
+        <v>899000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="4" t="n">
+        <v>357000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="4" t="n">
+        <v>357000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="4" t="n">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="4" t="n">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="4" t="n">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="4" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="4" t="n">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="4" t="n">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="4" t="n">
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="4" t="n">
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="4" t="n">
+        <v>689000</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="4" t="n">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="4" t="n">
+        <v>3626000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="4" t="n">
+        <v>1399000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="4" t="n">
+        <v>929000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="4" t="n">
+        <v>699000</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="4" t="n">
+        <v>699000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="4" t="n">
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="4" t="n">
+        <v>259000</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="4" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="4" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="4" t="n">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="4" t="n">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="4" t="n">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="4" t="n">
+        <v>899000</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="B41" s="4" t="n">
+        <v>1590000</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="B42" s="4" t="n">
+        <v>5090000</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="B43" s="4" t="n">
+        <v>2490000</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
         <v>44</v>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>679000</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>269000</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>229000</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>229000</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>599000</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>159000</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>159000</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>159000</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>599000</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>329000</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>329000</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>349000</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>349000</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>349000</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>349000</v>
       </c>
     </row>
   </sheetData>
